--- a/data/trans_dic/P24_1_R-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P24_1_R-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,15 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con problemas de sueño con bastante o mucha frecuencia</t>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +550,25 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -588,42 +595,57 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -642,6 +664,9 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +681,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,28%</t>
+          <t>19,43%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>24,17%</t>
+          <t>25,11%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>16,41%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>35,59%</t>
+          <t>30,62%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>34,47%</t>
+          <t>36,99%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>33,56%</t>
+          <t>37,47%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>35,69%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>35,03%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>29,18%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>29,25%</t>
+          <t>28,98%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>26,1%</t>
+          <t>31,64%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30,76%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>26,04%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>33,68%</t>
         </is>
       </c>
     </row>
@@ -724,62 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>14,93; 24,65</t>
+          <t>13,6; 26,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>18,29; 28,68</t>
+          <t>18,21; 32,1</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>18,94; 30,6</t>
+          <t>18,31; 32,19</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>12,42; 22,09</t>
+          <t>10,79; 23,54</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,75; 40,7</t>
+          <t>19,86; 51,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>28,82; 39,81</t>
+          <t>30,26; 43,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>28,41; 38,9</t>
+          <t>30,74; 44,59</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,88; 39,74</t>
+          <t>28,0; 42,19</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,58; 31,72</t>
+          <t>28,63; 41,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>25,16; 32,69</t>
+          <t>28,88; 44,1</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>25,29; 32,82</t>
+          <t>24,72; 34,29</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>22,19; 29,76</t>
+          <t>26,46; 37,03</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>25,96; 35,78</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>21,65; 30,88</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>27,15; 43,93</t>
         </is>
       </c>
     </row>
@@ -796,62 +851,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>18,99%</t>
+          <t>18,3%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>18,29%</t>
+          <t>25,29%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>19,77%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,14%</t>
+          <t>19,22%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,93%</t>
+          <t>26,51%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>40,01%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>33,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>28,09%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>28,08%</t>
+          <t>26,82%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>26,37%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>29,91%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>23,15%</t>
+          <t>29,98%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>25,61%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>23,09%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>33,57%</t>
         </is>
       </c>
     </row>
@@ -864,62 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>14,5; 25,32</t>
+          <t>12,68; 26,07</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>13,1; 25,49</t>
+          <t>17,42; 35,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>14,63; 26,21</t>
+          <t>15,84; 34,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 22,35</t>
+          <t>12,96; 26,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,48; 42,09</t>
+          <t>19,32; 34,48</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,51; 40,48</t>
+          <t>32,44; 47,85</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>24,37; 35,76</t>
+          <t>26,82; 41,41</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,65; 35,61</t>
+          <t>21,94; 36,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>23,59; 32,49</t>
+          <t>20,3; 33,23</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>22,02; 30,8</t>
+          <t>31,86; 51,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>20,86; 29,22</t>
+          <t>24,79; 35,01</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>18,96; 27,09</t>
+          <t>25,03; 36,05</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>20,99; 31,55</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>18,52; 28,37</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>26,79; 40,74</t>
         </is>
       </c>
     </row>
@@ -936,62 +1021,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,73%</t>
+          <t>12,66%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>35,92%</t>
+          <t>44,85%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>13,7%</t>
+          <t>12,41%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>13,68%</t>
+          <t>15,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>27,38%</t>
+          <t>40,3%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>27,55%</t>
+          <t>21,77%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>26,42%</t>
+          <t>30,33%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,47%</t>
+          <t>35,14%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>22,81%</t>
+          <t>32,58%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,9%</t>
+          <t>39,47%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>19,85%</t>
+          <t>17,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>20,56%</t>
+          <t>37,61%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>23,91%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>39,9%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1104,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>9,39; 31,05</t>
+          <t>3,18; 29,12</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>22,47; 60,63</t>
+          <t>18,99; 77,21</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>6,14; 24,31</t>
+          <t>2,62; 28,79</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,82; 25,98</t>
+          <t>3,94; 32,93</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,76; 40,71</t>
+          <t>13,63; 76,59</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,7; 39,21</t>
+          <t>11,12; 38,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,95; 38,45</t>
+          <t>17,68; 45,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,04; 41,05</t>
+          <t>20,68; 52,66</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,84; 31,63</t>
+          <t>17,42; 48,44</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>22,88; 45,67</t>
+          <t>22,89; 57,51</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>13,73; 27,56</t>
+          <t>8,71; 29,1</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>13,37; 28,41</t>
+          <t>23,68; 59,01</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 36,26</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>13,31; 36,22</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>25,21; 60,96</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1191,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>18,21%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>22,65%</t>
+          <t>27,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>22,89%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>17,42%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>34,92%</t>
+          <t>30,1%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,44%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>31,28%</t>
+          <t>35,32%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>31,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>38,27%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28,13%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
           <t>31,59%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>27,52%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>28,35%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>26,41%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>24,3%</t>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>27,96%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>24,58%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>34,3%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>15,7; 22,79</t>
+          <t>14,3; 22,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,99; 27,44</t>
+          <t>21,64; 34,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,78; 25,58</t>
+          <t>18,36; 28,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>13,64; 20,45</t>
+          <t>13,03; 21,91</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>30,92; 38,83</t>
+          <t>22,63; 42,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>29,63; 37,26</t>
+          <t>31,93; 42,09</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>27,29; 34,81</t>
+          <t>30,74; 40,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,83; 35,73</t>
+          <t>27,84; 37,5</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>25,02; 30,14</t>
+          <t>26,96; 36,05</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>25,52; 31,21</t>
+          <t>33,23; 45,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>23,93; 29,21</t>
+          <t>24,62; 31,89</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>21,55; 26,96</t>
+          <t>27,67; 35,56</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>24,34; 31,5</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>21,46; 27,96</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>29,95; 40,28</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
@@ -1207,12 +1359,1215 @@
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con problemas de sueño con bastante o mucha frecuencia (tasa de respuesta: 99,93%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>106.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>71071</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>106401</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>91940</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>62486</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>157952</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>161058</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>190656</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>149690</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>142756</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>205652</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>232129</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>297058</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>241630</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>205242</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>363604</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>49741; 96782</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>78310; 138060</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>67049; 117851</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>41100; 89649</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>102441; 264480</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>131725; 190405</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>156416; 226872</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>117446; 176971</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>116677; 167989</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>162767; 248557</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>198016; 274688</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>248425; 347694</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>203907; 281090</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>170627; 243437</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>293148; 474270</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>75.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>92.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>55755</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>90875</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>73122</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>61996</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>109316</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>140080</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>144388</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>95076</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>89835</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>174547</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>195836</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>235263</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>168198</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>151830</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>283863</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>38639; 79446</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>62615; 127127</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>50424; 108632</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>41797; 86284</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>79659; 142170</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>113567; 167514</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>114080; 176149</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>74260; 123418</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>68008; 111323</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>138025; 224779</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>162303; 229219</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>196427; 282930</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>137844; 207237</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>121777; 186577</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>226518; 344485</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>5.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>8.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>10735</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>45642</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>9875</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>12958</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48113</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>17986</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>30688</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>28659</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>26240</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>43950</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>28721</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>76330</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>38534</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>39198</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>92062</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>2699; 24698</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>19326; 78574</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2088; 22920</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3370; 28183</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>16277; 91448</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9187; 31464</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>17886; 46077</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>16867; 42943</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>14030; 39009</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>25485; 64040</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14583; 48729</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>48065; 119759</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>23170; 58428</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>22107; 60171</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>58168; 140656</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>76.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>205.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>220.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>207.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>192.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>137561</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>242918</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>174937</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>137439</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>315381</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>319124</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>365732</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>273425</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>258831</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>424148</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>456685</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>608651</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>448362</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>396270</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>739529</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>108010; 172583</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>192840; 305628</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>140316; 216836</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>102832; 172836</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>237040; 443082</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>277155; 365328</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>318254; 417663</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>233652; 314793</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>221928; 296736</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>368204; 501480</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>399718; 517702</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>533093; 685056</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>390224; 505042</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>345905; 450719</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>645731; 868391</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
